--- a/Resource/excel/table/R-任务-任务配置-(框架定义,策划填写).xlsx
+++ b/Resource/excel/table/R-任务-任务配置-(框架定义,策划填写).xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KFrame\Project\Fighter\trunk\Resource\excel\table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\FighterServer\Resource\excel\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -170,7 +170,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="58">
   <si>
     <t>完成条件</t>
   </si>
@@ -286,10 +286,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>完成关卡1次</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>完成关卡5次</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -307,6 +303,142 @@
   </si>
   <si>
     <t>完成关卡(困难)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>无伤完成关卡1次</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>无伤完成关卡3次</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>无尽模式达到5000里程</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>无尽模式达到20000里程</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>无尽模式达到12000里程</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成关卡2次</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入密道1次</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入密道3次</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入密道5次</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得BUFF2次</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>获得BUFF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>次</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>获得BUFF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>次</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得金钱100</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得金钱500</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得金钱1000</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得道具2次</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得道具5次</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得道具10次</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳过3个障碍物</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳过6个障碍物</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳过10个障碍物</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计游戏时长1小时</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -326,6 +458,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -486,7 +619,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -539,6 +672,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1000,13 +1134,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomRight" activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1051,7 +1185,7 @@
         <v>3</v>
       </c>
       <c r="F2" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G2" s="9">
         <v>3</v>
@@ -1174,7 +1308,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="18" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="B8" s="17">
         <v>10001</v>
@@ -1189,15 +1323,15 @@
         <v>1</v>
       </c>
       <c r="F8" s="17">
-        <v>10101</v>
+        <v>10001</v>
       </c>
       <c r="H8" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B9" s="17">
         <v>10002</v>
@@ -1212,15 +1346,15 @@
         <v>1</v>
       </c>
       <c r="F9" s="17">
-        <v>10102</v>
+        <v>10002</v>
       </c>
       <c r="H9" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B10" s="17">
         <v>10003</v>
@@ -1235,10 +1369,430 @@
         <v>1</v>
       </c>
       <c r="F10" s="17">
-        <v>10103</v>
+        <v>10003</v>
       </c>
       <c r="H10" s="19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="20" t="s">
         <v>36</v>
+      </c>
+      <c r="B11" s="17">
+        <v>10004</v>
+      </c>
+      <c r="C11" s="17">
+        <v>3</v>
+      </c>
+      <c r="D11" s="17">
+        <v>2</v>
+      </c>
+      <c r="E11" s="17">
+        <v>1</v>
+      </c>
+      <c r="F11" s="17">
+        <v>10004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="17">
+        <v>10005</v>
+      </c>
+      <c r="C12" s="17">
+        <v>3</v>
+      </c>
+      <c r="D12" s="17">
+        <v>3</v>
+      </c>
+      <c r="E12" s="17">
+        <v>1</v>
+      </c>
+      <c r="F12" s="17">
+        <v>10005</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="17">
+        <v>10006</v>
+      </c>
+      <c r="C13" s="17">
+        <v>3</v>
+      </c>
+      <c r="D13" s="17">
+        <v>1</v>
+      </c>
+      <c r="E13" s="17">
+        <v>1</v>
+      </c>
+      <c r="F13" s="17">
+        <v>10006</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="17">
+        <v>10007</v>
+      </c>
+      <c r="C14" s="17">
+        <v>3</v>
+      </c>
+      <c r="D14" s="17">
+        <v>2</v>
+      </c>
+      <c r="E14" s="17">
+        <v>1</v>
+      </c>
+      <c r="F14" s="17">
+        <v>10007</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="17">
+        <v>10008</v>
+      </c>
+      <c r="C15" s="17">
+        <v>3</v>
+      </c>
+      <c r="D15" s="17">
+        <v>3</v>
+      </c>
+      <c r="E15" s="17">
+        <v>1</v>
+      </c>
+      <c r="F15" s="17">
+        <v>10008</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="17">
+        <v>10009</v>
+      </c>
+      <c r="C16" s="17">
+        <v>3</v>
+      </c>
+      <c r="D16" s="17">
+        <v>1</v>
+      </c>
+      <c r="E16" s="17">
+        <v>1</v>
+      </c>
+      <c r="F16" s="17">
+        <v>10009</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="17">
+        <v>10010</v>
+      </c>
+      <c r="C17" s="17">
+        <v>3</v>
+      </c>
+      <c r="D17" s="17">
+        <v>2</v>
+      </c>
+      <c r="E17" s="17">
+        <v>1</v>
+      </c>
+      <c r="F17" s="17">
+        <v>10010</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="17">
+        <v>10011</v>
+      </c>
+      <c r="C18" s="17">
+        <v>3</v>
+      </c>
+      <c r="D18" s="17">
+        <v>3</v>
+      </c>
+      <c r="E18" s="17">
+        <v>1</v>
+      </c>
+      <c r="F18" s="17">
+        <v>10011</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="17">
+        <v>11001</v>
+      </c>
+      <c r="C19" s="17">
+        <v>3</v>
+      </c>
+      <c r="D19" s="17">
+        <v>1</v>
+      </c>
+      <c r="E19" s="17">
+        <v>1</v>
+      </c>
+      <c r="F19" s="17">
+        <v>11001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="17">
+        <v>11002</v>
+      </c>
+      <c r="C20" s="17">
+        <v>3</v>
+      </c>
+      <c r="D20" s="17">
+        <v>2</v>
+      </c>
+      <c r="E20" s="17">
+        <v>1</v>
+      </c>
+      <c r="F20" s="17">
+        <v>11002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="17">
+        <v>11003</v>
+      </c>
+      <c r="C21" s="17">
+        <v>3</v>
+      </c>
+      <c r="D21" s="17">
+        <v>3</v>
+      </c>
+      <c r="E21" s="17">
+        <v>1</v>
+      </c>
+      <c r="F21" s="17">
+        <v>11003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" s="17">
+        <v>11004</v>
+      </c>
+      <c r="C22" s="17">
+        <v>3</v>
+      </c>
+      <c r="D22" s="17">
+        <v>1</v>
+      </c>
+      <c r="E22" s="17">
+        <v>1</v>
+      </c>
+      <c r="F22" s="17">
+        <v>11004</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" s="17">
+        <v>11005</v>
+      </c>
+      <c r="C23" s="17">
+        <v>3</v>
+      </c>
+      <c r="D23" s="17">
+        <v>2</v>
+      </c>
+      <c r="E23" s="17">
+        <v>1</v>
+      </c>
+      <c r="F23" s="17">
+        <v>11005</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" s="17">
+        <v>11006</v>
+      </c>
+      <c r="C24" s="17">
+        <v>3</v>
+      </c>
+      <c r="D24" s="17">
+        <v>3</v>
+      </c>
+      <c r="E24" s="17">
+        <v>1</v>
+      </c>
+      <c r="F24" s="17">
+        <v>11006</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" s="17">
+        <v>11007</v>
+      </c>
+      <c r="C25" s="17">
+        <v>3</v>
+      </c>
+      <c r="D25" s="17">
+        <v>1</v>
+      </c>
+      <c r="E25" s="17">
+        <v>1</v>
+      </c>
+      <c r="F25" s="17">
+        <v>11007</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" s="17">
+        <v>11008</v>
+      </c>
+      <c r="C26" s="17">
+        <v>3</v>
+      </c>
+      <c r="D26" s="17">
+        <v>2</v>
+      </c>
+      <c r="E26" s="17">
+        <v>1</v>
+      </c>
+      <c r="F26" s="17">
+        <v>11008</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" s="17">
+        <v>11009</v>
+      </c>
+      <c r="C27" s="17">
+        <v>3</v>
+      </c>
+      <c r="D27" s="17">
+        <v>3</v>
+      </c>
+      <c r="E27" s="17">
+        <v>1</v>
+      </c>
+      <c r="F27" s="17">
+        <v>11009</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" s="17">
+        <v>12001</v>
+      </c>
+      <c r="C28" s="17">
+        <v>3</v>
+      </c>
+      <c r="D28" s="17">
+        <v>1</v>
+      </c>
+      <c r="E28" s="17">
+        <v>1</v>
+      </c>
+      <c r="F28" s="17">
+        <v>12001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" s="17">
+        <v>12002</v>
+      </c>
+      <c r="C29" s="17">
+        <v>3</v>
+      </c>
+      <c r="D29" s="17">
+        <v>2</v>
+      </c>
+      <c r="E29" s="17">
+        <v>1</v>
+      </c>
+      <c r="F29" s="17">
+        <v>12002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" s="17">
+        <v>12003</v>
+      </c>
+      <c r="C30" s="17">
+        <v>3</v>
+      </c>
+      <c r="D30" s="17">
+        <v>3</v>
+      </c>
+      <c r="E30" s="17">
+        <v>1</v>
+      </c>
+      <c r="F30" s="17">
+        <v>12003</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31" s="17">
+        <v>12004</v>
+      </c>
+      <c r="C31" s="17">
+        <v>3</v>
+      </c>
+      <c r="D31" s="17">
+        <v>1</v>
+      </c>
+      <c r="E31" s="17">
+        <v>1</v>
+      </c>
+      <c r="F31" s="17">
+        <v>12004</v>
       </c>
     </row>
   </sheetData>

--- a/Resource/excel/table/R-任务-任务配置-(框架定义,策划填写).xlsx
+++ b/Resource/excel/table/R-任务-任务配置-(框架定义,策划填写).xlsx
@@ -170,7 +170,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="55">
   <si>
     <t>完成条件</t>
   </si>
@@ -291,18 +291,6 @@
   </si>
   <si>
     <t>完成关卡10次</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成关卡(简单)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成关卡(普通)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成关卡(困难)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -1140,7 +1128,7 @@
       <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H21" sqref="H21"/>
+      <selection pane="bottomRight" activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1308,13 +1296,13 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="18" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B8" s="17">
         <v>10001</v>
       </c>
       <c r="C8" s="17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D8" s="17">
         <v>1</v>
@@ -1326,7 +1314,7 @@
         <v>10001</v>
       </c>
       <c r="H8" s="18" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -1337,7 +1325,7 @@
         <v>10002</v>
       </c>
       <c r="C9" s="17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D9" s="17">
         <v>2</v>
@@ -1349,7 +1337,7 @@
         <v>10002</v>
       </c>
       <c r="H9" s="19" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -1360,7 +1348,7 @@
         <v>10003</v>
       </c>
       <c r="C10" s="17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D10" s="17">
         <v>3</v>
@@ -1372,18 +1360,18 @@
         <v>10003</v>
       </c>
       <c r="H10" s="19" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="20" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B11" s="17">
         <v>10004</v>
       </c>
       <c r="C11" s="17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11" s="17">
         <v>2</v>
@@ -1394,16 +1382,19 @@
       <c r="F11" s="17">
         <v>10004</v>
       </c>
+      <c r="H11" s="20" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="20" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B12" s="17">
         <v>10005</v>
       </c>
       <c r="C12" s="17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12" s="17">
         <v>3</v>
@@ -1414,10 +1405,13 @@
       <c r="F12" s="17">
         <v>10005</v>
       </c>
+      <c r="H12" s="20" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="16" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B13" s="17">
         <v>10006</v>
@@ -1434,10 +1428,13 @@
       <c r="F13" s="17">
         <v>10006</v>
       </c>
+      <c r="H13" s="16" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B14" s="17">
         <v>10007</v>
@@ -1454,10 +1451,13 @@
       <c r="F14" s="17">
         <v>10007</v>
       </c>
+      <c r="H14" s="16" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="16" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B15" s="17">
         <v>10008</v>
@@ -1474,16 +1474,19 @@
       <c r="F15" s="17">
         <v>10008</v>
       </c>
+      <c r="H15" s="16" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="20" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B16" s="17">
         <v>10009</v>
       </c>
       <c r="C16" s="17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D16" s="17">
         <v>1</v>
@@ -1494,16 +1497,19 @@
       <c r="F16" s="17">
         <v>10009</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H16" s="20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="20" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B17" s="17">
         <v>10010</v>
       </c>
       <c r="C17" s="17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D17" s="17">
         <v>2</v>
@@ -1514,16 +1520,19 @@
       <c r="F17" s="17">
         <v>10010</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H17" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="20" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B18" s="17">
         <v>10011</v>
       </c>
       <c r="C18" s="17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D18" s="17">
         <v>3</v>
@@ -1534,16 +1543,19 @@
       <c r="F18" s="17">
         <v>10011</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H18" s="20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="20" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B19" s="17">
         <v>11001</v>
       </c>
       <c r="C19" s="17">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D19" s="17">
         <v>1</v>
@@ -1554,16 +1566,19 @@
       <c r="F19" s="17">
         <v>11001</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H19" s="20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="20" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B20" s="17">
         <v>11002</v>
       </c>
       <c r="C20" s="17">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D20" s="17">
         <v>2</v>
@@ -1574,16 +1589,19 @@
       <c r="F20" s="17">
         <v>11002</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H20" s="20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="20" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B21" s="17">
         <v>11003</v>
       </c>
       <c r="C21" s="17">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D21" s="17">
         <v>3</v>
@@ -1594,16 +1612,19 @@
       <c r="F21" s="17">
         <v>11003</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H21" s="20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="20" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B22" s="17">
         <v>11004</v>
       </c>
       <c r="C22" s="17">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D22" s="17">
         <v>1</v>
@@ -1614,16 +1635,19 @@
       <c r="F22" s="17">
         <v>11004</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H22" s="20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="20" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B23" s="17">
         <v>11005</v>
       </c>
       <c r="C23" s="17">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D23" s="17">
         <v>2</v>
@@ -1634,16 +1658,19 @@
       <c r="F23" s="17">
         <v>11005</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H23" s="20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="20" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B24" s="17">
         <v>11006</v>
       </c>
       <c r="C24" s="17">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D24" s="17">
         <v>3</v>
@@ -1654,16 +1681,19 @@
       <c r="F24" s="17">
         <v>11006</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H24" s="20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="20" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B25" s="17">
         <v>11007</v>
       </c>
       <c r="C25" s="17">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D25" s="17">
         <v>1</v>
@@ -1674,16 +1704,19 @@
       <c r="F25" s="17">
         <v>11007</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H25" s="20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="20" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B26" s="17">
         <v>11008</v>
       </c>
       <c r="C26" s="17">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D26" s="17">
         <v>2</v>
@@ -1694,16 +1727,19 @@
       <c r="F26" s="17">
         <v>11008</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H26" s="20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="20" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B27" s="17">
         <v>11009</v>
       </c>
       <c r="C27" s="17">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D27" s="17">
         <v>3</v>
@@ -1714,16 +1750,19 @@
       <c r="F27" s="17">
         <v>11009</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H27" s="20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="20" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B28" s="17">
         <v>12001</v>
       </c>
       <c r="C28" s="17">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D28" s="17">
         <v>1</v>
@@ -1734,16 +1773,19 @@
       <c r="F28" s="17">
         <v>12001</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H28" s="20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="20" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B29" s="17">
         <v>12002</v>
       </c>
       <c r="C29" s="17">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D29" s="17">
         <v>2</v>
@@ -1754,16 +1796,19 @@
       <c r="F29" s="17">
         <v>12002</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H29" s="20" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="20" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B30" s="17">
         <v>12003</v>
       </c>
       <c r="C30" s="17">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D30" s="17">
         <v>3</v>
@@ -1774,16 +1819,19 @@
       <c r="F30" s="17">
         <v>12003</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H30" s="20" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="20" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B31" s="17">
         <v>12004</v>
       </c>
       <c r="C31" s="17">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D31" s="17">
         <v>1</v>
@@ -1793,6 +1841,9 @@
       </c>
       <c r="F31" s="17">
         <v>12004</v>
+      </c>
+      <c r="H31" s="20" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/Resource/excel/table/R-任务-任务配置-(框架定义,策划填写).xlsx
+++ b/Resource/excel/table/R-任务-任务配置-(框架定义,策划填写).xlsx
@@ -108,8 +108,8 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">0 需要玩家交付
-1 自动完成, 发送奖励
+          <t xml:space="preserve">1 自动完成, 发送奖励
+2 需要玩家交付
 </t>
         </r>
       </text>
@@ -366,9 +366,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
@@ -393,9 +393,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -414,8 +414,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -429,14 +475,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -445,13 +483,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -460,6 +491,56 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -468,95 +549,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -601,31 +600,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -637,43 +720,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -685,103 +762,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -832,15 +813,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -856,17 +828,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -886,26 +852,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -920,154 +866,189 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1114,11 +1095,11 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1471,7 +1452,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomRight" activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4"/>

--- a/Resource/excel/table/R-任务-任务配置-(框架定义,策划填写).xlsx
+++ b/Resource/excel/table/R-任务-任务配置-(框架定义,策划填写).xlsx
@@ -20,6 +20,7 @@
     <author>Windows 用户</author>
     <author>xiejiayin</author>
     <author>PCC</author>
+    <author>liuxiaobing</author>
   </authors>
   <commentList>
     <comment ref="A1" authorId="0">
@@ -114,7 +115,30 @@
         </r>
       </text>
     </comment>
-    <comment ref="F7" authorId="3">
+    <comment ref="F7" authorId="4">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="方正书宋_GBK"/>
+            <charset val="134"/>
+          </rPr>
+          <t>liuxiaobing:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="方正书宋_GBK"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+0 不删除
+1 删除</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G7" authorId="3">
       <text>
         <r>
           <rPr>
@@ -145,7 +169,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57">
   <si>
     <t>xml=task</t>
   </si>
@@ -162,6 +186,9 @@
     <t>uint32</t>
   </si>
   <si>
+    <t>bool</t>
+  </si>
+  <si>
     <t>dynamiccondition</t>
   </si>
   <si>
@@ -192,6 +219,9 @@
     <t>完成方式</t>
   </si>
   <si>
+    <t>完成后是否删除</t>
+  </si>
+  <si>
     <t>完成条件</t>
   </si>
   <si>
@@ -220,6 +250,9 @@
   </si>
   <si>
     <t>CompleteMode</t>
+  </si>
+  <si>
+    <t>CompleteRemove</t>
   </si>
   <si>
     <t>CompleteCondition</t>
@@ -367,9 +400,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -393,14 +426,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -414,9 +462,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -424,6 +472,103 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -437,118 +582,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -600,19 +633,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -624,145 +771,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -804,15 +837,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -831,8 +855,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -847,6 +871,39 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -869,15 +926,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -886,169 +934,154 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1445,14 +1478,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I9" sqref="I9"/>
+      <selection pane="bottomRight" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4"/>
@@ -1462,11 +1495,12 @@
     <col min="3" max="3" width="9.5" style="8" customWidth="1"/>
     <col min="4" max="4" width="7.5" style="8" customWidth="1"/>
     <col min="5" max="5" width="13.125" style="8" customWidth="1"/>
-    <col min="6" max="6" width="18.375" style="8" customWidth="1"/>
-    <col min="7" max="8" width="14.875" style="8" customWidth="1"/>
-    <col min="9" max="9" width="15.375" style="8" customWidth="1"/>
-    <col min="10" max="10" width="18.125" style="8" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="8"/>
+    <col min="6" max="6" width="16.2142857142857" style="8" customWidth="1"/>
+    <col min="7" max="7" width="18.375" style="8" customWidth="1"/>
+    <col min="8" max="9" width="14.875" style="8" customWidth="1"/>
+    <col min="10" max="10" width="15.375" style="8" customWidth="1"/>
+    <col min="11" max="11" width="18.125" style="8" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="16.8" spans="1:3">
@@ -1480,7 +1514,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" ht="16.8" spans="1:10">
+    <row r="2" s="2" customFormat="1" ht="16.8" spans="1:11">
       <c r="A2" s="9">
         <v>0</v>
       </c>
@@ -1503,16 +1537,19 @@
         <v>3</v>
       </c>
       <c r="H2" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I2" s="10">
         <v>2</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2" s="10">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" s="3" customFormat="1" ht="16.8" spans="1:10">
+      <c r="K2" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" s="3" customFormat="1" ht="16.8" spans="1:11">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -1538,89 +1575,98 @@
         <v>7</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="4" s="4" customFormat="1" ht="16.8" spans="1:1">
       <c r="A4" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" s="4" customFormat="1" ht="16.8" spans="1:1">
       <c r="A5" s="11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" s="5" customFormat="1" ht="16.8" spans="1:10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" s="5" customFormat="1" ht="16.8" spans="1:11">
       <c r="A6" s="12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="F6" s="13" t="s">
         <v>16</v>
       </c>
+      <c r="G6" s="19" t="s">
+        <v>17</v>
+      </c>
       <c r="H6" s="13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J6" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" s="6" customFormat="1" ht="16.8" spans="1:10">
+        <v>20</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" s="6" customFormat="1" ht="16.8" spans="1:11">
       <c r="A7" s="14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" s="15" t="s">
         <v>26</v>
       </c>
+      <c r="F7" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>28</v>
+      </c>
       <c r="H7" s="15" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I7" s="15" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J7" s="15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="K7" s="15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="16" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B8" s="8">
         <v>10001</v>
@@ -1635,15 +1681,18 @@
         <v>1</v>
       </c>
       <c r="F8" s="8">
+        <v>0</v>
+      </c>
+      <c r="G8" s="8">
         <v>10001</v>
       </c>
-      <c r="H8" s="16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8" s="16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="17" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B9" s="8">
         <v>10002</v>
@@ -1658,15 +1707,18 @@
         <v>1</v>
       </c>
       <c r="F9" s="8">
+        <v>0</v>
+      </c>
+      <c r="G9" s="8">
         <v>10002</v>
       </c>
-      <c r="H9" s="17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9" s="17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="17" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B10" s="8">
         <v>10003</v>
@@ -1681,15 +1733,18 @@
         <v>1</v>
       </c>
       <c r="F10" s="8">
+        <v>0</v>
+      </c>
+      <c r="G10" s="8">
         <v>10003</v>
       </c>
-      <c r="H10" s="17" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10" s="17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="18" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B11" s="8">
         <v>10004</v>
@@ -1704,15 +1759,18 @@
         <v>1</v>
       </c>
       <c r="F11" s="8">
+        <v>0</v>
+      </c>
+      <c r="G11" s="8">
         <v>10004</v>
       </c>
-      <c r="H11" s="18" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11" s="18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="18" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B12" s="8">
         <v>10005</v>
@@ -1727,15 +1785,18 @@
         <v>1</v>
       </c>
       <c r="F12" s="8">
+        <v>0</v>
+      </c>
+      <c r="G12" s="8">
         <v>10005</v>
       </c>
-      <c r="H12" s="18" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="I12" s="18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="7" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B13" s="8">
         <v>10006</v>
@@ -1750,15 +1811,18 @@
         <v>1</v>
       </c>
       <c r="F13" s="8">
+        <v>0</v>
+      </c>
+      <c r="G13" s="8">
         <v>10006</v>
       </c>
-      <c r="H13" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="I13" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="7" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B14" s="8">
         <v>10007</v>
@@ -1773,15 +1837,18 @@
         <v>1</v>
       </c>
       <c r="F14" s="8">
+        <v>0</v>
+      </c>
+      <c r="G14" s="8">
         <v>10007</v>
       </c>
-      <c r="H14" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="I14" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="7" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B15" s="8">
         <v>10008</v>
@@ -1796,15 +1863,18 @@
         <v>1</v>
       </c>
       <c r="F15" s="8">
+        <v>0</v>
+      </c>
+      <c r="G15" s="8">
         <v>10008</v>
       </c>
-      <c r="H15" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="I15" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="18" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B16" s="8">
         <v>10009</v>
@@ -1819,15 +1889,18 @@
         <v>1</v>
       </c>
       <c r="F16" s="8">
+        <v>0</v>
+      </c>
+      <c r="G16" s="8">
         <v>10009</v>
       </c>
-      <c r="H16" s="18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="I16" s="18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="18" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B17" s="8">
         <v>10010</v>
@@ -1842,15 +1915,18 @@
         <v>1</v>
       </c>
       <c r="F17" s="8">
+        <v>0</v>
+      </c>
+      <c r="G17" s="8">
         <v>10010</v>
       </c>
-      <c r="H17" s="18" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17" s="18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="18" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B18" s="8">
         <v>10011</v>
@@ -1865,15 +1941,18 @@
         <v>1</v>
       </c>
       <c r="F18" s="8">
+        <v>0</v>
+      </c>
+      <c r="G18" s="8">
         <v>10011</v>
       </c>
-      <c r="H18" s="18" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18" s="18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="18" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B19" s="8">
         <v>11001</v>
@@ -1888,15 +1967,18 @@
         <v>1</v>
       </c>
       <c r="F19" s="8">
+        <v>0</v>
+      </c>
+      <c r="G19" s="8">
         <v>11001</v>
       </c>
-      <c r="H19" s="18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" ht="13" spans="1:8">
+      <c r="I19" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" ht="13" spans="1:9">
       <c r="A20" s="18" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B20" s="8">
         <v>11002</v>
@@ -1911,15 +1993,18 @@
         <v>1</v>
       </c>
       <c r="F20" s="8">
+        <v>0</v>
+      </c>
+      <c r="G20" s="8">
         <v>11002</v>
       </c>
-      <c r="H20" s="18" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" ht="13" spans="1:8">
+      <c r="I20" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" ht="13" spans="1:9">
       <c r="A21" s="18" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B21" s="8">
         <v>11003</v>
@@ -1934,15 +2019,18 @@
         <v>1</v>
       </c>
       <c r="F21" s="8">
+        <v>0</v>
+      </c>
+      <c r="G21" s="8">
         <v>11003</v>
       </c>
-      <c r="H21" s="18" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+      <c r="I21" s="18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="18" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B22" s="8">
         <v>11004</v>
@@ -1957,15 +2045,18 @@
         <v>1</v>
       </c>
       <c r="F22" s="8">
+        <v>0</v>
+      </c>
+      <c r="G22" s="8">
         <v>11004</v>
       </c>
-      <c r="H22" s="18" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+      <c r="I22" s="18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="18" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B23" s="8">
         <v>11005</v>
@@ -1980,15 +2071,18 @@
         <v>1</v>
       </c>
       <c r="F23" s="8">
+        <v>0</v>
+      </c>
+      <c r="G23" s="8">
         <v>11005</v>
       </c>
-      <c r="H23" s="18" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+      <c r="I23" s="18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="18" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B24" s="8">
         <v>11006</v>
@@ -2003,15 +2097,18 @@
         <v>1</v>
       </c>
       <c r="F24" s="8">
+        <v>0</v>
+      </c>
+      <c r="G24" s="8">
         <v>11006</v>
       </c>
-      <c r="H24" s="18" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+      <c r="I24" s="18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="18" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B25" s="8">
         <v>11007</v>
@@ -2026,15 +2123,18 @@
         <v>1</v>
       </c>
       <c r="F25" s="8">
+        <v>0</v>
+      </c>
+      <c r="G25" s="8">
         <v>11007</v>
       </c>
-      <c r="H25" s="18" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+      <c r="I25" s="18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="18" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B26" s="8">
         <v>11008</v>
@@ -2049,15 +2149,18 @@
         <v>1</v>
       </c>
       <c r="F26" s="8">
+        <v>0</v>
+      </c>
+      <c r="G26" s="8">
         <v>11008</v>
       </c>
-      <c r="H26" s="18" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+      <c r="I26" s="18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="18" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B27" s="8">
         <v>11009</v>
@@ -2072,15 +2175,18 @@
         <v>1</v>
       </c>
       <c r="F27" s="8">
+        <v>0</v>
+      </c>
+      <c r="G27" s="8">
         <v>11009</v>
       </c>
-      <c r="H27" s="18" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="I27" s="18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="18" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B28" s="8">
         <v>12001</v>
@@ -2095,15 +2201,18 @@
         <v>1</v>
       </c>
       <c r="F28" s="8">
+        <v>0</v>
+      </c>
+      <c r="G28" s="8">
         <v>12001</v>
       </c>
-      <c r="H28" s="18" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+      <c r="I28" s="18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="18" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B29" s="8">
         <v>12002</v>
@@ -2118,15 +2227,18 @@
         <v>1</v>
       </c>
       <c r="F29" s="8">
+        <v>0</v>
+      </c>
+      <c r="G29" s="8">
         <v>12002</v>
       </c>
-      <c r="H29" s="18" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+      <c r="I29" s="18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="18" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B30" s="8">
         <v>12003</v>
@@ -2141,15 +2253,18 @@
         <v>1</v>
       </c>
       <c r="F30" s="8">
+        <v>0</v>
+      </c>
+      <c r="G30" s="8">
         <v>12003</v>
       </c>
-      <c r="H30" s="18" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+      <c r="I30" s="18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="18" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B31" s="8">
         <v>12004</v>
@@ -2164,10 +2279,13 @@
         <v>1</v>
       </c>
       <c r="F31" s="8">
+        <v>0</v>
+      </c>
+      <c r="G31" s="8">
         <v>12004</v>
       </c>
-      <c r="H31" s="18" t="s">
-        <v>53</v>
+      <c r="I31" s="18" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -2184,7 +2302,7 @@
     <cfRule type="duplicateValues" dxfId="0" priority="131" stopIfTrue="1"/>
     <cfRule type="duplicateValues" dxfId="0" priority="132" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E7">
+  <conditionalFormatting sqref="E6:F7">
     <cfRule type="duplicateValues" dxfId="0" priority="127" stopIfTrue="1"/>
   </conditionalFormatting>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Resource/excel/table/R-任务-任务配置-(框架定义,策划填写).xlsx
+++ b/Resource/excel/table/R-任务-任务配置-(框架定义,策划填写).xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\FighterServer\Resource\excel\table\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowHeight="23620"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="23625"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="1" r:id="rId1"/>
@@ -23,13 +28,14 @@
     <author>liuxiaobing</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="A1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -43,13 +49,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="B7" authorId="1">
+    <comment ref="B7" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>任务：21
@@ -60,13 +67,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="C7" authorId="2">
+    <comment ref="C7" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="微软雅黑"/>
+            <family val="2"/>
             <charset val="134"/>
           </rPr>
           <t>任务类型:</t>
@@ -75,6 +83,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="微软雅黑"/>
+            <family val="2"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -91,13 +100,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="E7" authorId="3">
+    <comment ref="E7" authorId="3" shapeId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">PCC:
@@ -107,6 +117,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">1 自动完成, 发送奖励
@@ -115,7 +126,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F7" authorId="4">
+    <comment ref="F7" authorId="4" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -138,13 +149,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="G7" authorId="3">
+    <comment ref="G7" authorId="3" shapeId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>PCC:</t>
@@ -153,6 +165,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -169,7 +182,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="62">
   <si>
     <t>xml=task</t>
   </si>
@@ -311,6 +324,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>获得BUFF</t>
@@ -320,6 +334,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>5</t>
@@ -329,6 +344,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>次</t>
@@ -340,6 +356,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>获得BUFF</t>
@@ -349,6 +366,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>10</t>
@@ -358,6 +376,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>次</t>
@@ -393,18 +412,32 @@
   <si>
     <t>累计游戏时长1小时</t>
   </si>
+  <si>
+    <t>[{"money":"100"}]</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"money":"200"}]</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"money":"300"}]</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"money":"200"}]</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"money":"300"}]</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="25">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -416,179 +449,84 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="方正书宋_GBK"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="方正书宋_GBK"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="36">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -609,13 +547,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -631,176 +569,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -836,256 +606,14 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1139,70 +667,142 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="2" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="3" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="4" builtinId="41"/>
-    <cellStyle name="输入" xfId="5" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="7" builtinId="38"/>
-    <cellStyle name="货币" xfId="8" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="9" builtinId="37"/>
-    <cellStyle name="百分比" xfId="10" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="11" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="12" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="13" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="14" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="15" builtinId="44"/>
-    <cellStyle name="计算" xfId="16" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="17" builtinId="29"/>
-    <cellStyle name="适中" xfId="18" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="19" builtinId="46"/>
-    <cellStyle name="好" xfId="20" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="21" builtinId="30"/>
-    <cellStyle name="汇总" xfId="22" builtinId="25"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="24" builtinId="23"/>
-    <cellStyle name="输出" xfId="25" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="26" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="27" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="28" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="29" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="30" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="31" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="32" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="33" builtinId="9"/>
-    <cellStyle name="标题" xfId="34" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="35" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="36" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="37" builtinId="40"/>
-    <cellStyle name="注释" xfId="38" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="39" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="40" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="41" builtinId="51"/>
-    <cellStyle name="超链接" xfId="42" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="43" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="44" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="45" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="46" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="47" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="48" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="49" builtinId="24"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="8">
     <dxf>
       <font>
-        <name val="宋体"/>
-        <scheme val="none"/>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <u val="none"/>
         <sz val="11"/>
         <color rgb="FF9C0006"/>
+        <name val="宋体"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color rgb="FF9C0006"/>
+        <name val="宋体"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color rgb="FF9C0006"/>
+        <name val="宋体"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color rgb="FF9C0006"/>
+        <name val="宋体"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color rgb="FF9C0006"/>
+        <name val="宋体"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color rgb="FF9C0006"/>
+        <name val="宋体"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color rgb="FF9C0006"/>
+        <name val="宋体"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color rgb="FF9C0006"/>
+        <name val="宋体"/>
+        <scheme val="none"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1215,6 +815,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1472,30 +1075,29 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
-      <selection/>
+      <pane xSplit="1" ySplit="6" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F4" sqref="F4"/>
+      <selection pane="bottomRight" activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="21.5" style="7" customWidth="1"/>
     <col min="2" max="2" width="11.625" style="8" customWidth="1"/>
     <col min="3" max="3" width="9.5" style="8" customWidth="1"/>
     <col min="4" max="4" width="7.5" style="8" customWidth="1"/>
     <col min="5" max="5" width="13.125" style="8" customWidth="1"/>
-    <col min="6" max="6" width="16.2142857142857" style="8" customWidth="1"/>
+    <col min="6" max="6" width="16.25" style="8" customWidth="1"/>
     <col min="7" max="7" width="18.375" style="8" customWidth="1"/>
     <col min="8" max="9" width="14.875" style="8" customWidth="1"/>
     <col min="10" max="10" width="15.375" style="8" customWidth="1"/>
@@ -1503,7 +1105,7 @@
     <col min="12" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="16.8" spans="1:3">
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="13.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1514,7 +1116,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" ht="16.8" spans="1:11">
+    <row r="2" spans="1:11" s="2" customFormat="1">
       <c r="A2" s="9">
         <v>0</v>
       </c>
@@ -1549,7 +1151,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" s="3" customFormat="1" ht="16.8" spans="1:11">
+    <row r="3" spans="1:11" s="3" customFormat="1" ht="13.5">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -1584,17 +1186,17 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" s="4" customFormat="1" ht="16.8" spans="1:1">
+    <row r="4" spans="1:11" s="4" customFormat="1" ht="13.5">
       <c r="A4" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" s="4" customFormat="1" ht="16.8" spans="1:1">
+    <row r="5" spans="1:11" s="4" customFormat="1" ht="13.5">
       <c r="A5" s="11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" s="5" customFormat="1" ht="16.8" spans="1:11">
+    <row r="6" spans="1:11" s="5" customFormat="1">
       <c r="A6" s="12" t="s">
         <v>11</v>
       </c>
@@ -1629,7 +1231,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" s="6" customFormat="1" ht="16.8" spans="1:11">
+    <row r="7" spans="1:11" s="6" customFormat="1">
       <c r="A7" s="14" t="s">
         <v>22</v>
       </c>
@@ -1664,7 +1266,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:11">
       <c r="A8" s="16" t="s">
         <v>33</v>
       </c>
@@ -1686,11 +1288,17 @@
       <c r="G8" s="8">
         <v>10001</v>
       </c>
+      <c r="H8" s="8">
+        <v>10001</v>
+      </c>
       <c r="I8" s="16" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="K8" s="21" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="17" t="s">
         <v>34</v>
       </c>
@@ -1712,11 +1320,17 @@
       <c r="G9" s="8">
         <v>10002</v>
       </c>
+      <c r="H9" s="8">
+        <v>10002</v>
+      </c>
       <c r="I9" s="17" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="K9" s="21" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="17" t="s">
         <v>35</v>
       </c>
@@ -1738,11 +1352,17 @@
       <c r="G10" s="8">
         <v>10003</v>
       </c>
+      <c r="H10" s="8">
+        <v>10003</v>
+      </c>
       <c r="I10" s="17" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="K10" s="21" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="18" t="s">
         <v>36</v>
       </c>
@@ -1764,11 +1384,17 @@
       <c r="G11" s="8">
         <v>10004</v>
       </c>
+      <c r="H11" s="8">
+        <v>10002</v>
+      </c>
       <c r="I11" s="18" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="K11" s="21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="18" t="s">
         <v>37</v>
       </c>
@@ -1790,11 +1416,17 @@
       <c r="G12" s="8">
         <v>10005</v>
       </c>
+      <c r="H12" s="8">
+        <v>10003</v>
+      </c>
       <c r="I12" s="18" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="K12" s="21" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="7" t="s">
         <v>38</v>
       </c>
@@ -1816,11 +1448,17 @@
       <c r="G13" s="8">
         <v>10006</v>
       </c>
+      <c r="H13" s="8">
+        <v>10001</v>
+      </c>
       <c r="I13" s="7" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="K13" s="21" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="7" t="s">
         <v>39</v>
       </c>
@@ -1842,11 +1480,17 @@
       <c r="G14" s="8">
         <v>10007</v>
       </c>
+      <c r="H14" s="8">
+        <v>10002</v>
+      </c>
       <c r="I14" s="7" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="K14" s="21" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="7" t="s">
         <v>40</v>
       </c>
@@ -1868,11 +1512,17 @@
       <c r="G15" s="8">
         <v>10008</v>
       </c>
+      <c r="H15" s="8">
+        <v>10003</v>
+      </c>
       <c r="I15" s="7" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="16" spans="1:9">
+      <c r="K15" s="21" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="18" t="s">
         <v>41</v>
       </c>
@@ -1894,11 +1544,17 @@
       <c r="G16" s="8">
         <v>10009</v>
       </c>
+      <c r="H16" s="8">
+        <v>10001</v>
+      </c>
       <c r="I16" s="18" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="17" spans="1:9">
+      <c r="K16" s="21" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="18" t="s">
         <v>42</v>
       </c>
@@ -1920,11 +1576,17 @@
       <c r="G17" s="8">
         <v>10010</v>
       </c>
+      <c r="H17" s="8">
+        <v>10002</v>
+      </c>
       <c r="I17" s="18" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="K17" s="21" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="18" t="s">
         <v>43</v>
       </c>
@@ -1946,11 +1608,17 @@
       <c r="G18" s="8">
         <v>10011</v>
       </c>
+      <c r="H18" s="8">
+        <v>10003</v>
+      </c>
       <c r="I18" s="18" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="K18" s="21" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="18" t="s">
         <v>44</v>
       </c>
@@ -1972,11 +1640,17 @@
       <c r="G19" s="8">
         <v>11001</v>
       </c>
+      <c r="H19" s="8">
+        <v>10001</v>
+      </c>
       <c r="I19" s="18" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="20" ht="13" spans="1:9">
+      <c r="K19" s="21" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="18" t="s">
         <v>45</v>
       </c>
@@ -1998,11 +1672,17 @@
       <c r="G20" s="8">
         <v>11002</v>
       </c>
+      <c r="H20" s="8">
+        <v>10002</v>
+      </c>
       <c r="I20" s="18" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="21" ht="13" spans="1:9">
+      <c r="K20" s="21" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="18" t="s">
         <v>46</v>
       </c>
@@ -2024,11 +1704,17 @@
       <c r="G21" s="8">
         <v>11003</v>
       </c>
+      <c r="H21" s="8">
+        <v>10003</v>
+      </c>
       <c r="I21" s="18" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="22" spans="1:9">
+      <c r="K21" s="21" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="18" t="s">
         <v>47</v>
       </c>
@@ -2050,11 +1736,17 @@
       <c r="G22" s="8">
         <v>11004</v>
       </c>
+      <c r="H22" s="8">
+        <v>10001</v>
+      </c>
       <c r="I22" s="18" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="23" spans="1:9">
+      <c r="K22" s="21" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="18" t="s">
         <v>48</v>
       </c>
@@ -2076,11 +1768,17 @@
       <c r="G23" s="8">
         <v>11005</v>
       </c>
+      <c r="H23" s="8">
+        <v>10002</v>
+      </c>
       <c r="I23" s="18" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="24" spans="1:9">
+      <c r="K23" s="21" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="18" t="s">
         <v>49</v>
       </c>
@@ -2102,11 +1800,17 @@
       <c r="G24" s="8">
         <v>11006</v>
       </c>
+      <c r="H24" s="8">
+        <v>10003</v>
+      </c>
       <c r="I24" s="18" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="25" spans="1:9">
+      <c r="K24" s="21" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="18" t="s">
         <v>50</v>
       </c>
@@ -2128,11 +1832,17 @@
       <c r="G25" s="8">
         <v>11007</v>
       </c>
+      <c r="H25" s="8">
+        <v>10001</v>
+      </c>
       <c r="I25" s="18" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="26" spans="1:9">
+      <c r="K25" s="21" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="18" t="s">
         <v>51</v>
       </c>
@@ -2154,11 +1864,17 @@
       <c r="G26" s="8">
         <v>11008</v>
       </c>
+      <c r="H26" s="8">
+        <v>10002</v>
+      </c>
       <c r="I26" s="18" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="27" spans="1:9">
+      <c r="K26" s="21" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="18" t="s">
         <v>52</v>
       </c>
@@ -2180,11 +1896,17 @@
       <c r="G27" s="8">
         <v>11009</v>
       </c>
+      <c r="H27" s="8">
+        <v>10003</v>
+      </c>
       <c r="I27" s="18" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="28" spans="1:9">
+      <c r="K27" s="21" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="18" t="s">
         <v>53</v>
       </c>
@@ -2206,11 +1928,17 @@
       <c r="G28" s="8">
         <v>12001</v>
       </c>
+      <c r="H28" s="8">
+        <v>10001</v>
+      </c>
       <c r="I28" s="18" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="29" spans="1:9">
+      <c r="K28" s="21" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="18" t="s">
         <v>54</v>
       </c>
@@ -2232,11 +1960,17 @@
       <c r="G29" s="8">
         <v>12002</v>
       </c>
+      <c r="H29" s="8">
+        <v>10002</v>
+      </c>
       <c r="I29" s="18" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="30" spans="1:9">
+      <c r="K29" s="21" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="18" t="s">
         <v>55</v>
       </c>
@@ -2258,11 +1992,17 @@
       <c r="G30" s="8">
         <v>12003</v>
       </c>
+      <c r="H30" s="8">
+        <v>10003</v>
+      </c>
       <c r="I30" s="18" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="31" spans="1:9">
+      <c r="K30" s="21" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="18" t="s">
         <v>56</v>
       </c>
@@ -2284,30 +2024,36 @@
       <c r="G31" s="8">
         <v>12004</v>
       </c>
+      <c r="H31" s="8">
+        <v>10001</v>
+      </c>
       <c r="I31" s="18" t="s">
         <v>56</v>
       </c>
+      <c r="K31" s="21" t="s">
+        <v>57</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="12" type="noConversion"/>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="0" priority="2" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="3" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="4" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="2" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="3" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="4" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="duplicateValues" dxfId="0" priority="1" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="1" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:B7">
-    <cfRule type="duplicateValues" dxfId="0" priority="129" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="131" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="132" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="129" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="131" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="132" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6:F7">
     <cfRule type="duplicateValues" dxfId="0" priority="127" stopIfTrue="1"/>
   </conditionalFormatting>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Resource/excel/table/R-任务-任务配置-(框架定义,策划填写).xlsx
+++ b/Resource/excel/table/R-任务-任务配置-(框架定义,策划填写).xlsx
@@ -182,7 +182,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="73">
   <si>
     <t>xml=task</t>
   </si>
@@ -283,51 +283,77 @@
     <t>RewardDisplay(string)</t>
   </si>
   <si>
+    <t>无伤完成关卡1次</t>
+  </si>
+  <si>
+    <t>无伤完成关卡3次</t>
+  </si>
+  <si>
+    <t>无尽模式达到12000里程</t>
+  </si>
+  <si>
+    <t>无尽模式达到20000里程</t>
+  </si>
+  <si>
+    <t>获得金钱100</t>
+  </si>
+  <si>
+    <t>获得金钱500</t>
+  </si>
+  <si>
+    <t>获得金钱1000</t>
+  </si>
+  <si>
+    <t>跳过3个障碍物</t>
+  </si>
+  <si>
+    <t>跳过6个障碍物</t>
+  </si>
+  <si>
+    <t>跳过10个障碍物</t>
+  </si>
+  <si>
+    <t>累计游戏时长1小时</t>
+  </si>
+  <si>
+    <t>[{"money":"100"}]</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"money":"200"}]</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"money":"300"}]</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"money":"200"}]</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"money":"300"}]</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
     <t>完成关卡2次</t>
-  </si>
-  <si>
-    <t>完成关卡5次</t>
-  </si>
-  <si>
-    <t>完成关卡10次</t>
-  </si>
-  <si>
-    <t>无伤完成关卡1次</t>
-  </si>
-  <si>
-    <t>无伤完成关卡3次</t>
-  </si>
-  <si>
-    <t>无尽模式达到5000里程</t>
-  </si>
-  <si>
-    <t>无尽模式达到12000里程</t>
-  </si>
-  <si>
-    <t>无尽模式达到20000里程</t>
-  </si>
-  <si>
-    <t>进入密道1次</t>
-  </si>
-  <si>
-    <t>进入密道3次</t>
-  </si>
-  <si>
-    <t>进入密道5次</t>
-  </si>
-  <si>
-    <t>获得BUFF2次</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入关卡2次</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入关卡3次</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成关卡3次</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>获得BUFF</t>
+      <t>完成关卡1</t>
     </r>
     <r>
       <rPr>
@@ -336,108 +362,94 @@
         <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
+        <scheme val="minor"/>
       </rPr>
       <t>次</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>获得BUFF</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>次</t>
-    </r>
-  </si>
-  <si>
-    <t>获得金钱100</t>
-  </si>
-  <si>
-    <t>获得金钱500</t>
-  </si>
-  <si>
-    <t>获得金钱1000</t>
-  </si>
-  <si>
-    <t>获得道具2次</t>
-  </si>
-  <si>
-    <t>获得道具5次</t>
-  </si>
-  <si>
-    <t>获得道具10次</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成关卡1次</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>无伤完成关卡2次</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>无伤完成关卡3次</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>无伤完成关卡1次</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"money":"100"}]</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成关卡2次</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成关卡3次</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳过1个障碍物</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳过2个障碍物</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>跳过3个障碍物</t>
-  </si>
-  <si>
-    <t>跳过6个障碍物</t>
-  </si>
-  <si>
-    <t>跳过10个障碍物</t>
-  </si>
-  <si>
-    <t>累计游戏时长1小时</t>
-  </si>
-  <si>
-    <t>[{"money":"100"}]</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{"money":"200"}]</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{"money":"300"}]</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{"money":"200"}]</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{"money":"300"}]</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>无尽模式达到5000里程</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>无尽模式达到1000里程</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>无伤完成关卡2次</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>无尽模式达到2000里程</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>无尽模式达到3000里程</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入关卡1次</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入关卡1次</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入关卡2次</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入关卡3次</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="13">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -471,13 +483,6 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
     </font>
@@ -613,7 +618,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -656,7 +661,6 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -668,6 +672,11 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1081,13 +1090,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="6" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H33" sqref="H33"/>
+      <selection pane="bottomRight" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1099,7 +1108,8 @@
     <col min="5" max="5" width="13.125" style="8" customWidth="1"/>
     <col min="6" max="6" width="16.25" style="8" customWidth="1"/>
     <col min="7" max="7" width="18.375" style="8" customWidth="1"/>
-    <col min="8" max="9" width="14.875" style="8" customWidth="1"/>
+    <col min="8" max="8" width="14.875" style="8" customWidth="1"/>
+    <col min="9" max="9" width="25.375" style="8" customWidth="1"/>
     <col min="10" max="10" width="15.375" style="8" customWidth="1"/>
     <col min="11" max="11" width="18.125" style="8" customWidth="1"/>
     <col min="12" max="16384" width="9" style="8"/>
@@ -1215,7 +1225,7 @@
       <c r="F6" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="19" t="s">
+      <c r="G6" s="18" t="s">
         <v>17</v>
       </c>
       <c r="H6" s="13" t="s">
@@ -1250,7 +1260,7 @@
       <c r="F7" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="20" t="s">
+      <c r="G7" s="19" t="s">
         <v>28</v>
       </c>
       <c r="H7" s="15" t="s">
@@ -1267,8 +1277,8 @@
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="16" t="s">
-        <v>33</v>
+      <c r="A8" s="24" t="s">
+        <v>54</v>
       </c>
       <c r="B8" s="8">
         <v>10001</v>
@@ -1291,16 +1301,16 @@
       <c r="H8" s="8">
         <v>10001</v>
       </c>
-      <c r="I8" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="K8" s="21" t="s">
-        <v>57</v>
+      <c r="I8" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="K8" s="20" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="17" t="s">
-        <v>34</v>
+      <c r="A9" s="16" t="s">
+        <v>49</v>
       </c>
       <c r="B9" s="8">
         <v>10002</v>
@@ -1323,16 +1333,16 @@
       <c r="H9" s="8">
         <v>10002</v>
       </c>
-      <c r="I9" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="K9" s="21" t="s">
-        <v>58</v>
+      <c r="I9" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="K9" s="20" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="17" t="s">
-        <v>35</v>
+      <c r="A10" s="16" t="s">
+        <v>52</v>
       </c>
       <c r="B10" s="8">
         <v>10003</v>
@@ -1355,16 +1365,16 @@
       <c r="H10" s="8">
         <v>10003</v>
       </c>
-      <c r="I10" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="K10" s="21" t="s">
-        <v>59</v>
+      <c r="I10" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="K10" s="20" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="18" t="s">
-        <v>36</v>
+      <c r="A11" s="23" t="s">
+        <v>55</v>
       </c>
       <c r="B11" s="8">
         <v>10004</v>
@@ -1387,16 +1397,16 @@
       <c r="H11" s="8">
         <v>10002</v>
       </c>
-      <c r="I11" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="K11" s="21" t="s">
-        <v>60</v>
+      <c r="I11" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="K11" s="20" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="18" t="s">
-        <v>37</v>
+      <c r="A12" s="22" t="s">
+        <v>56</v>
       </c>
       <c r="B12" s="8">
         <v>10005</v>
@@ -1419,16 +1429,16 @@
       <c r="H12" s="8">
         <v>10003</v>
       </c>
-      <c r="I12" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="K12" s="21" t="s">
-        <v>61</v>
+      <c r="I12" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="K12" s="20" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="7" t="s">
-        <v>38</v>
+      <c r="A13" s="22" t="s">
+        <v>64</v>
       </c>
       <c r="B13" s="8">
         <v>10006</v>
@@ -1451,16 +1461,16 @@
       <c r="H13" s="8">
         <v>10001</v>
       </c>
-      <c r="I13" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="K13" s="21" t="s">
-        <v>57</v>
+      <c r="I13" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="K13" s="20" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="7" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B14" s="8">
         <v>10007</v>
@@ -1483,16 +1493,16 @@
       <c r="H14" s="8">
         <v>10002</v>
       </c>
-      <c r="I14" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="K14" s="21" t="s">
-        <v>58</v>
+      <c r="I14" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="K14" s="20" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B15" s="8">
         <v>10008</v>
@@ -1515,16 +1525,16 @@
       <c r="H15" s="8">
         <v>10003</v>
       </c>
-      <c r="I15" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K15" s="21" t="s">
-        <v>59</v>
+      <c r="I15" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="K15" s="20" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="18" t="s">
-        <v>41</v>
+      <c r="A16" s="23" t="s">
+        <v>69</v>
       </c>
       <c r="B16" s="8">
         <v>10009</v>
@@ -1547,16 +1557,16 @@
       <c r="H16" s="8">
         <v>10001</v>
       </c>
-      <c r="I16" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="K16" s="21" t="s">
-        <v>57</v>
+      <c r="I16" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="K16" s="20" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="18" t="s">
-        <v>42</v>
+      <c r="A17" s="22" t="s">
+        <v>50</v>
       </c>
       <c r="B17" s="8">
         <v>10010</v>
@@ -1579,16 +1589,16 @@
       <c r="H17" s="8">
         <v>10002</v>
       </c>
-      <c r="I17" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="K17" s="21" t="s">
-        <v>58</v>
+      <c r="I17" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="K17" s="20" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="18" t="s">
-        <v>43</v>
+      <c r="A18" s="22" t="s">
+        <v>51</v>
       </c>
       <c r="B18" s="8">
         <v>10011</v>
@@ -1611,22 +1621,22 @@
       <c r="H18" s="8">
         <v>10003</v>
       </c>
-      <c r="I18" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="K18" s="21" t="s">
-        <v>59</v>
+      <c r="I18" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="K18" s="20" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="18" t="s">
-        <v>44</v>
+      <c r="A19" s="23" t="s">
+        <v>57</v>
       </c>
       <c r="B19" s="8">
-        <v>11001</v>
+        <v>10012</v>
       </c>
       <c r="C19" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D19" s="8">
         <v>1</v>
@@ -1638,94 +1648,94 @@
         <v>0</v>
       </c>
       <c r="G19" s="8">
-        <v>11001</v>
+        <v>10012</v>
       </c>
       <c r="H19" s="8">
         <v>10001</v>
       </c>
-      <c r="I19" s="18" t="s">
+      <c r="I19" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="K19" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="K19" s="21" t="s">
-        <v>57</v>
-      </c>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="18" t="s">
+      <c r="A20" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="8">
+        <v>11004</v>
+      </c>
+      <c r="C20" s="8">
+        <v>6</v>
+      </c>
+      <c r="D20" s="8">
+        <v>1</v>
+      </c>
+      <c r="E20" s="8">
+        <v>1</v>
+      </c>
+      <c r="F20" s="8">
+        <v>0</v>
+      </c>
+      <c r="G20" s="8">
+        <v>11004</v>
+      </c>
+      <c r="H20" s="8">
+        <v>10001</v>
+      </c>
+      <c r="I20" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="K20" s="20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="8">
+        <v>11005</v>
+      </c>
+      <c r="C21" s="8">
+        <v>6</v>
+      </c>
+      <c r="D21" s="8">
+        <v>2</v>
+      </c>
+      <c r="E21" s="8">
+        <v>1</v>
+      </c>
+      <c r="F21" s="8">
+        <v>0</v>
+      </c>
+      <c r="G21" s="8">
+        <v>11005</v>
+      </c>
+      <c r="H21" s="8">
+        <v>10002</v>
+      </c>
+      <c r="I21" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="K21" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="B20" s="8">
-        <v>11002</v>
-      </c>
-      <c r="C20" s="8">
-        <v>5</v>
-      </c>
-      <c r="D20" s="8">
-        <v>2</v>
-      </c>
-      <c r="E20" s="8">
-        <v>1</v>
-      </c>
-      <c r="F20" s="8">
-        <v>0</v>
-      </c>
-      <c r="G20" s="8">
-        <v>11002</v>
-      </c>
-      <c r="H20" s="8">
-        <v>10002</v>
-      </c>
-      <c r="I20" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="K20" s="21" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="A21" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="B21" s="8">
-        <v>11003</v>
-      </c>
-      <c r="C21" s="8">
-        <v>5</v>
-      </c>
-      <c r="D21" s="8">
-        <v>3</v>
-      </c>
-      <c r="E21" s="8">
-        <v>1</v>
-      </c>
-      <c r="F21" s="8">
-        <v>0</v>
-      </c>
-      <c r="G21" s="8">
-        <v>11003</v>
-      </c>
-      <c r="H21" s="8">
-        <v>10003</v>
-      </c>
-      <c r="I21" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="K21" s="21" t="s">
-        <v>59</v>
-      </c>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="18" t="s">
-        <v>47</v>
+      <c r="A22" s="17" t="s">
+        <v>39</v>
       </c>
       <c r="B22" s="8">
-        <v>11004</v>
+        <v>11006</v>
       </c>
       <c r="C22" s="8">
         <v>6</v>
       </c>
       <c r="D22" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E22" s="8">
         <v>1</v>
@@ -1734,308 +1744,148 @@
         <v>0</v>
       </c>
       <c r="G22" s="8">
-        <v>11004</v>
+        <v>11006</v>
       </c>
       <c r="H22" s="8">
+        <v>10003</v>
+      </c>
+      <c r="I22" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="K22" s="20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="8">
+        <v>12001</v>
+      </c>
+      <c r="C23" s="8">
+        <v>8</v>
+      </c>
+      <c r="D23" s="8">
+        <v>1</v>
+      </c>
+      <c r="E23" s="8">
+        <v>1</v>
+      </c>
+      <c r="F23" s="8">
+        <v>0</v>
+      </c>
+      <c r="G23" s="8">
+        <v>12001</v>
+      </c>
+      <c r="H23" s="8">
         <v>10001</v>
       </c>
-      <c r="I22" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="K22" s="21" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="A23" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="B23" s="8">
-        <v>11005</v>
-      </c>
-      <c r="C23" s="8">
-        <v>6</v>
-      </c>
-      <c r="D23" s="8">
+      <c r="I23" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="K23" s="20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" s="8">
+        <v>12002</v>
+      </c>
+      <c r="C24" s="8">
+        <v>8</v>
+      </c>
+      <c r="D24" s="8">
         <v>2</v>
       </c>
-      <c r="E23" s="8">
-        <v>1</v>
-      </c>
-      <c r="F23" s="8">
-        <v>0</v>
-      </c>
-      <c r="G23" s="8">
-        <v>11005</v>
-      </c>
-      <c r="H23" s="8">
+      <c r="E24" s="8">
+        <v>1</v>
+      </c>
+      <c r="F24" s="8">
+        <v>0</v>
+      </c>
+      <c r="G24" s="8">
+        <v>12002</v>
+      </c>
+      <c r="H24" s="8">
         <v>10002</v>
       </c>
-      <c r="I23" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="K23" s="21" t="s">
+      <c r="I24" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="K24" s="20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="8">
+        <v>12003</v>
+      </c>
+      <c r="C25" s="8">
+        <v>8</v>
+      </c>
+      <c r="D25" s="8">
+        <v>3</v>
+      </c>
+      <c r="E25" s="8">
+        <v>1</v>
+      </c>
+      <c r="F25" s="8">
+        <v>0</v>
+      </c>
+      <c r="G25" s="8">
+        <v>12003</v>
+      </c>
+      <c r="H25" s="8">
+        <v>10003</v>
+      </c>
+      <c r="I25" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="K25" s="20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" s="8">
+        <v>12004</v>
+      </c>
+      <c r="C26" s="8">
+        <v>9</v>
+      </c>
+      <c r="D26" s="8">
+        <v>1</v>
+      </c>
+      <c r="E26" s="8">
+        <v>1</v>
+      </c>
+      <c r="F26" s="8">
+        <v>0</v>
+      </c>
+      <c r="G26" s="8">
+        <v>12004</v>
+      </c>
+      <c r="H26" s="8">
+        <v>10001</v>
+      </c>
+      <c r="I26" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="K26" s="20" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
-      <c r="A24" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="B24" s="8">
-        <v>11006</v>
-      </c>
-      <c r="C24" s="8">
-        <v>6</v>
-      </c>
-      <c r="D24" s="8">
-        <v>3</v>
-      </c>
-      <c r="E24" s="8">
-        <v>1</v>
-      </c>
-      <c r="F24" s="8">
-        <v>0</v>
-      </c>
-      <c r="G24" s="8">
-        <v>11006</v>
-      </c>
-      <c r="H24" s="8">
-        <v>10003</v>
-      </c>
-      <c r="I24" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="K24" s="21" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
-      <c r="A25" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="B25" s="8">
-        <v>11007</v>
-      </c>
-      <c r="C25" s="8">
-        <v>7</v>
-      </c>
-      <c r="D25" s="8">
-        <v>1</v>
-      </c>
-      <c r="E25" s="8">
-        <v>1</v>
-      </c>
-      <c r="F25" s="8">
-        <v>0</v>
-      </c>
-      <c r="G25" s="8">
-        <v>11007</v>
-      </c>
-      <c r="H25" s="8">
-        <v>10001</v>
-      </c>
-      <c r="I25" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="K25" s="21" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="A26" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="B26" s="8">
-        <v>11008</v>
-      </c>
-      <c r="C26" s="8">
-        <v>7</v>
-      </c>
-      <c r="D26" s="8">
-        <v>2</v>
-      </c>
-      <c r="E26" s="8">
-        <v>1</v>
-      </c>
-      <c r="F26" s="8">
-        <v>0</v>
-      </c>
-      <c r="G26" s="8">
-        <v>11008</v>
-      </c>
-      <c r="H26" s="8">
-        <v>10002</v>
-      </c>
-      <c r="I26" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="K26" s="21" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
-      <c r="A27" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="B27" s="8">
-        <v>11009</v>
-      </c>
-      <c r="C27" s="8">
-        <v>7</v>
-      </c>
-      <c r="D27" s="8">
-        <v>3</v>
-      </c>
-      <c r="E27" s="8">
-        <v>1</v>
-      </c>
-      <c r="F27" s="8">
-        <v>0</v>
-      </c>
-      <c r="G27" s="8">
-        <v>11009</v>
-      </c>
-      <c r="H27" s="8">
-        <v>10003</v>
-      </c>
-      <c r="I27" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="K27" s="21" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
-      <c r="A28" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="B28" s="8">
-        <v>12001</v>
-      </c>
-      <c r="C28" s="8">
-        <v>8</v>
-      </c>
-      <c r="D28" s="8">
-        <v>1</v>
-      </c>
-      <c r="E28" s="8">
-        <v>1</v>
-      </c>
-      <c r="F28" s="8">
-        <v>0</v>
-      </c>
-      <c r="G28" s="8">
-        <v>12001</v>
-      </c>
-      <c r="H28" s="8">
-        <v>10001</v>
-      </c>
-      <c r="I28" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="K28" s="21" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
-      <c r="A29" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="B29" s="8">
-        <v>12002</v>
-      </c>
-      <c r="C29" s="8">
-        <v>8</v>
-      </c>
-      <c r="D29" s="8">
-        <v>2</v>
-      </c>
-      <c r="E29" s="8">
-        <v>1</v>
-      </c>
-      <c r="F29" s="8">
-        <v>0</v>
-      </c>
-      <c r="G29" s="8">
-        <v>12002</v>
-      </c>
-      <c r="H29" s="8">
-        <v>10002</v>
-      </c>
-      <c r="I29" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="K29" s="21" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
-      <c r="A30" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="B30" s="8">
-        <v>12003</v>
-      </c>
-      <c r="C30" s="8">
-        <v>8</v>
-      </c>
-      <c r="D30" s="8">
-        <v>3</v>
-      </c>
-      <c r="E30" s="8">
-        <v>1</v>
-      </c>
-      <c r="F30" s="8">
-        <v>0</v>
-      </c>
-      <c r="G30" s="8">
-        <v>12003</v>
-      </c>
-      <c r="H30" s="8">
-        <v>10003</v>
-      </c>
-      <c r="I30" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="K30" s="21" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
-      <c r="A31" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="B31" s="8">
-        <v>12004</v>
-      </c>
-      <c r="C31" s="8">
-        <v>9</v>
-      </c>
-      <c r="D31" s="8">
-        <v>1</v>
-      </c>
-      <c r="E31" s="8">
-        <v>1</v>
-      </c>
-      <c r="F31" s="8">
-        <v>0</v>
-      </c>
-      <c r="G31" s="8">
-        <v>12004</v>
-      </c>
-      <c r="H31" s="8">
-        <v>10001</v>
-      </c>
-      <c r="I31" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="K31" s="21" t="s">
-        <v>57</v>
-      </c>
-    </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <conditionalFormatting sqref="A2">
     <cfRule type="duplicateValues" dxfId="7" priority="2" stopIfTrue="1"/>
     <cfRule type="duplicateValues" dxfId="6" priority="3" stopIfTrue="1"/>
@@ -2053,7 +1903,7 @@
     <cfRule type="duplicateValues" dxfId="0" priority="127" stopIfTrue="1"/>
   </conditionalFormatting>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>